--- a/data/arbol_tipificacion_soul/00.arbol_tipificacion_v2_soul.xlsx
+++ b/data/arbol_tipificacion_soul/00.arbol_tipificacion_v2_soul.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emerson.Aguilar\Documents\git_hub\Axa\data\arbol_tipificacion_soul\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D885F8-29EB-497C-ABE5-6C3F2EADA24F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE14C795-720F-420F-BC2E-197776E2DF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{0C8A8193-BE22-47A8-93B6-FEFE6A3FB9E1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{0C8A8193-BE22-47A8-93B6-FEFE6A3FB9E1}"/>
   </bookViews>
   <sheets>
     <sheet name="Consulta3" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="DatosExternos_1" localSheetId="0" hidden="1">'Consulta3'!$A$1:$B$106</definedName>
-    <definedName name="DatosExternos_1" localSheetId="1" hidden="1">Falabella!$B$1:$J$65</definedName>
+    <definedName name="DatosExternos_1" localSheetId="1" hidden="1">Falabella!$B$1:$J$73</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="93">
   <si>
     <t>Venta</t>
   </si>
@@ -304,6 +304,36 @@
   </si>
   <si>
     <t xml:space="preserve">Tiene su asesor de seguros </t>
+  </si>
+  <si>
+    <t>Buzón de voz</t>
+  </si>
+  <si>
+    <t>Volver a llamar</t>
+  </si>
+  <si>
+    <t>Se realiza bienvenida</t>
+  </si>
+  <si>
+    <t>Número Equivocado/Errado</t>
+  </si>
+  <si>
+    <t>No colabora</t>
+  </si>
+  <si>
+    <t>Contrato cancelado</t>
+  </si>
+  <si>
+    <t>Info. Contacto de Asesor Comercial</t>
+  </si>
+  <si>
+    <t>Dañado/Fuera de Servicio</t>
+  </si>
+  <si>
+    <t>No efectivo</t>
+  </si>
+  <si>
+    <t>No Válido</t>
   </si>
 </sst>
 </file>
@@ -352,12 +382,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -729,23 +756,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF1B66D0-21EA-45C9-9FFB-D72F8546D969}" name="Tabla1" displayName="Tabla1" ref="A1:L65" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J65">
-    <sortCondition descending="1" ref="G1:G65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AF1B66D0-21EA-45C9-9FFB-D72F8546D969}" name="Tabla1" displayName="Tabla1" ref="A1:L73" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:J72">
+    <sortCondition descending="1" ref="G1:G72"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="2" xr3:uid="{98C23B9F-D8F8-41B2-B875-63B55701C132}" name="id" dataDxfId="11"/>
     <tableColumn id="1" xr3:uid="{B444EE17-F97A-485E-A302-C36903522534}" name="subtipificacion" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{68A67A4C-6B09-4218-BF9C-964B0FD3773B}" name="tipificacion" dataDxfId="9"/>
     <tableColumn id="4" xr3:uid="{2CA89C42-67E6-4180-99CF-D396E4721EF2}" name="tipo_contacto" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{5659C2A4-9BB7-4161-8C2B-A6CAF8FD81E5}" name="prioridad" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{A1910C75-997E-4240-862B-06F5885B913E}" name="efectivo" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{E3B887F7-2301-4986-A908-47A48D5F449B}" name="contacto" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{F6F68430-5DD4-4BCC-8FB2-2271934F4C7A}" name="no_contacto" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{75838347-BC15-4373-BDD0-5887B1F3909D}" name="contacto_efectivo" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{C008011B-256C-4E83-89A2-9DEBAF67DDDA}" name="contacto_no_efectivo" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{3F82EE05-6C56-4FD0-97AD-EAB0E10424C0}" name="excluir" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{23FAE9D2-CA59-47AE-9001-B4E0E503B500}" name="status" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{5659C2A4-9BB7-4161-8C2B-A6CAF8FD81E5}" name="prioridad" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{A1910C75-997E-4240-862B-06F5885B913E}" name="efectivo" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{E3B887F7-2301-4986-A908-47A48D5F449B}" name="contacto" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{F6F68430-5DD4-4BCC-8FB2-2271934F4C7A}" name="no_contacto" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{75838347-BC15-4373-BDD0-5887B1F3909D}" name="contacto_efectivo" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{C008011B-256C-4E83-89A2-9DEBAF67DDDA}" name="contacto_no_efectivo" dataDxfId="2"/>
+    <tableColumn id="11" xr3:uid="{3F82EE05-6C56-4FD0-97AD-EAB0E10424C0}" name="excluir" dataDxfId="1"/>
+    <tableColumn id="12" xr3:uid="{23FAE9D2-CA59-47AE-9001-B4E0E503B500}" name="status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1938,11 +1965,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48039E35-E3AF-482A-89BA-59A77FCE3EF8}">
-  <dimension ref="A1:L65"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2073,7 +2098,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>74</v>
@@ -2109,7 +2134,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>74</v>
@@ -2136,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1"/>
     </row>
@@ -2145,7 +2170,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>74</v>
@@ -2181,7 +2206,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>74</v>
@@ -2217,7 +2242,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>74</v>
@@ -2244,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="1"/>
     </row>
@@ -2253,7 +2278,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>74</v>
@@ -2280,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="1"/>
     </row>
@@ -2289,7 +2314,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>74</v>
@@ -2322,10 +2347,10 @@
     </row>
     <row r="11" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>74</v>
@@ -2334,7 +2359,7 @@
         <v>10</v>
       </c>
       <c r="E11" s="1">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -2352,25 +2377,25 @@
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="1"/>
     </row>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -2388,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="1"/>
     </row>
@@ -2397,10 +2422,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>84</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>10</v>
@@ -2424,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" s="1"/>
     </row>
@@ -2433,7 +2458,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>74</v>
@@ -2460,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" s="1"/>
     </row>
@@ -2469,19 +2494,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E15" s="1">
         <v>14</v>
       </c>
       <c r="F15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -2490,13 +2515,13 @@
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" s="1"/>
     </row>
@@ -2505,19 +2530,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1">
         <v>15</v>
       </c>
       <c r="F16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -2526,10 +2551,10 @@
         <v>0</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
@@ -2541,19 +2566,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" s="1">
         <v>16</v>
       </c>
       <c r="F17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -2562,13 +2587,13 @@
         <v>0</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" s="1"/>
     </row>
@@ -2577,7 +2602,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>73</v>
@@ -2613,7 +2638,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>73</v>
@@ -2649,7 +2674,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>73</v>
@@ -2676,7 +2701,7 @@
         <v>1</v>
       </c>
       <c r="K20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="1"/>
     </row>
@@ -2685,7 +2710,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>73</v>
@@ -2721,7 +2746,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>73</v>
@@ -2748,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="K22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" s="1"/>
     </row>
@@ -2757,7 +2782,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>73</v>
@@ -2784,7 +2809,7 @@
         <v>1</v>
       </c>
       <c r="K23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="1"/>
     </row>
@@ -2793,7 +2818,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>73</v>
@@ -2829,7 +2854,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>73</v>
@@ -2856,7 +2881,7 @@
         <v>1</v>
       </c>
       <c r="K25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -2864,8 +2889,8 @@
       <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>82</v>
+      <c r="B26" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>73</v>
@@ -2874,7 +2899,7 @@
         <v>11</v>
       </c>
       <c r="E26" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F26" s="1">
         <v>0</v>
@@ -2901,10 +2926,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>88</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>11</v>
@@ -2937,7 +2962,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>73</v>
@@ -2973,7 +2998,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>73</v>
@@ -3000,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="K29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="1"/>
     </row>
@@ -3009,7 +3034,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>40</v>
+        <v>82</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>73</v>
@@ -3045,7 +3070,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>73</v>
@@ -3081,7 +3106,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>73</v>
@@ -3117,7 +3142,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>73</v>
@@ -3144,7 +3169,7 @@
         <v>1</v>
       </c>
       <c r="K33" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1"/>
     </row>
@@ -3153,7 +3178,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>73</v>
@@ -3189,7 +3214,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>73</v>
@@ -3225,7 +3250,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>73</v>
@@ -3252,7 +3277,7 @@
         <v>1</v>
       </c>
       <c r="K36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="1"/>
     </row>
@@ -3261,7 +3286,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>73</v>
@@ -3297,7 +3322,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>73</v>
@@ -3333,7 +3358,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>73</v>
@@ -3360,7 +3385,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" s="1"/>
     </row>
@@ -3369,7 +3394,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>73</v>
@@ -3405,7 +3430,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>73</v>
@@ -3441,7 +3466,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>73</v>
@@ -3477,7 +3502,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>73</v>
@@ -3504,7 +3529,7 @@
         <v>1</v>
       </c>
       <c r="K43" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L43" s="1"/>
     </row>
@@ -3513,7 +3538,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>73</v>
@@ -3549,7 +3574,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>73</v>
@@ -3585,10 +3610,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>11</v>
@@ -3621,7 +3646,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>73</v>
@@ -3657,7 +3682,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>73</v>
@@ -3693,13 +3718,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E49" s="1">
         <v>48</v>
@@ -3717,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="1">
         <v>1</v>
@@ -3729,13 +3754,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E50" s="1">
         <v>49</v>
@@ -3753,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="J50" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50" s="1">
         <v>1</v>
@@ -3765,13 +3790,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E51" s="1">
         <v>50</v>
@@ -3789,7 +3814,7 @@
         <v>0</v>
       </c>
       <c r="J51" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K51" s="1">
         <v>1</v>
@@ -3801,13 +3826,13 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E52" s="1">
         <v>51</v>
@@ -3825,7 +3850,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="1">
         <v>1</v>
@@ -3837,13 +3862,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>76</v>
+        <v>11</v>
       </c>
       <c r="E53" s="1">
         <v>52</v>
@@ -3861,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53" s="1">
         <v>1</v>
@@ -3873,7 +3898,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>75</v>
@@ -3909,7 +3934,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>75</v>
@@ -3945,13 +3970,13 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="E56" s="1">
         <v>55</v>
@@ -3960,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="G56" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" s="1">
         <v>0</v>
@@ -3981,13 +4006,13 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="E57" s="1">
         <v>56</v>
@@ -3996,10 +4021,10 @@
         <v>0</v>
       </c>
       <c r="G57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" s="1">
         <v>0</v>
@@ -4008,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57" s="1"/>
     </row>
@@ -4017,13 +4042,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="E58" s="1">
         <v>57</v>
@@ -4032,10 +4057,10 @@
         <v>0</v>
       </c>
       <c r="G58" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" s="1">
         <v>0</v>
@@ -4053,13 +4078,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="E59" s="1">
         <v>58</v>
@@ -4068,10 +4093,10 @@
         <v>0</v>
       </c>
       <c r="G59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" s="1">
         <v>0</v>
@@ -4080,7 +4105,7 @@
         <v>0</v>
       </c>
       <c r="K59" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L59" s="1"/>
     </row>
@@ -4089,13 +4114,13 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="E60" s="1">
         <v>59</v>
@@ -4104,10 +4129,10 @@
         <v>0</v>
       </c>
       <c r="G60" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" s="1">
         <v>0</v>
@@ -4125,7 +4150,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>9</v>
@@ -4161,7 +4186,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>52</v>
+        <v>13</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>9</v>
@@ -4197,7 +4222,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>9</v>
@@ -4224,7 +4249,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L63" s="1"/>
     </row>
@@ -4233,7 +4258,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>9</v>
@@ -4260,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="1"/>
     </row>
@@ -4269,7 +4294,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>9</v>
@@ -4299,6 +4324,294 @@
         <v>0</v>
       </c>
       <c r="L65" s="1"/>
+    </row>
+    <row r="66" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="1">
+        <v>65</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>1</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0</v>
+      </c>
+      <c r="K66" s="1">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1"/>
+    </row>
+    <row r="67" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="1">
+        <v>66</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>1</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1">
+        <v>1</v>
+      </c>
+      <c r="L67" s="1"/>
+    </row>
+    <row r="68" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E68" s="1">
+        <v>67</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>1</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1">
+        <v>1</v>
+      </c>
+      <c r="L68" s="1"/>
+    </row>
+    <row r="69" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E69" s="1">
+        <v>68</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>1</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1">
+        <v>0</v>
+      </c>
+      <c r="L69" s="1"/>
+    </row>
+    <row r="70" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E70" s="1">
+        <v>69</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>1</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1">
+        <v>1</v>
+      </c>
+      <c r="L70" s="1"/>
+    </row>
+    <row r="71" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E71" s="1">
+        <v>70</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1">
+        <v>1</v>
+      </c>
+      <c r="L71" s="1"/>
+    </row>
+    <row r="72" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E72" s="1">
+        <v>71</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>1</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1">
+        <v>0</v>
+      </c>
+      <c r="L72" s="1"/>
+    </row>
+    <row r="73" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E73" s="1">
+        <v>72</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>1</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1">
+        <v>0</v>
+      </c>
+      <c r="L73" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
